--- a/documenten ToolsForEver/normalisatie bijlage a.xlsx
+++ b/documenten ToolsForEver/normalisatie bijlage a.xlsx
@@ -15,42 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jorie -</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jorie -:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>product_id</t>
   </si>
@@ -79,22 +45,82 @@
     <t>fabriek</t>
   </si>
   <si>
-    <t>Locaties</t>
-  </si>
-  <si>
     <t>locaties_producten</t>
   </si>
   <si>
     <t>prijs</t>
   </si>
   <si>
-    <t>minimum_aantal</t>
-  </si>
-  <si>
-    <t>inkoop_prijs</t>
-  </si>
-  <si>
-    <t>inkoop_verkoop</t>
+    <t>stap 0</t>
+  </si>
+  <si>
+    <t>stap 1</t>
+  </si>
+  <si>
+    <t>Stap 2</t>
+  </si>
+  <si>
+    <t>Stap 3</t>
+  </si>
+  <si>
+    <t>!! - Velden blijven hetzelfde, benamingen aangepast - !!</t>
+  </si>
+  <si>
+    <t>locaties</t>
+  </si>
+  <si>
+    <t>Locatie_id</t>
+  </si>
+  <si>
+    <t>product_naam</t>
+  </si>
+  <si>
+    <t>product_id*</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product_naam*</t>
+  </si>
+  <si>
+    <t>product_fabriek</t>
+  </si>
+  <si>
+    <t>product_type*</t>
+  </si>
+  <si>
+    <t>locatie_titel</t>
+  </si>
+  <si>
+    <t>product_aantal</t>
+  </si>
+  <si>
+    <t>product_aantal*</t>
+  </si>
+  <si>
+    <t>product_prijs*</t>
+  </si>
+  <si>
+    <t>waarde_inkoop**</t>
+  </si>
+  <si>
+    <t>waarde_verkoop**</t>
+  </si>
+  <si>
+    <t>totaal_locatie_inkoop**</t>
+  </si>
+  <si>
+    <t>totaal_locatie_verkoop**</t>
+  </si>
+  <si>
+    <t>eindtotaal_inkoop**</t>
+  </si>
+  <si>
+    <t>eindtotaal_verkoop**</t>
+  </si>
+  <si>
+    <t>product_prijs</t>
   </si>
 </sst>
 </file>
@@ -134,20 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +190,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -218,11 +284,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -237,6 +371,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -531,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.109375" customWidth="1"/>
@@ -552,144 +742,397 @@
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="F1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17"/>
+      <c r="J1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="19"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="19"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="19"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
